--- a/D5/zadání/A5_Vzorová_data_Grno.xlsx
+++ b/D5/zadání/A5_Vzorová_data_Grno.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t xml:space="preserve">Úloha A5: Spektrometrie α-záření</t>
   </si>
@@ -337,9 +337,21 @@
     <t xml:space="preserve">Poločas rozpadu ²³⁹Pu</t>
   </si>
   <si>
+    <t xml:space="preserve">t(238)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N(238)</t>
+  </si>
+  <si>
     <t xml:space="preserve">měření</t>
   </si>
   <si>
+    <t xml:space="preserve">t(239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N(239)</t>
+  </si>
+  <si>
     <t xml:space="preserve">FWHM píku ²³⁸Pu</t>
   </si>
   <si>
@@ -355,20 +367,27 @@
     <t xml:space="preserve">Počet impulzů v píku ²³⁹Pu</t>
   </si>
   <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doba měření</t>
   </si>
   <si>
     <t xml:space="preserve">zanedbáváme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -590,7 +609,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -721,6 +740,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -795,7 +818,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1002,11 +1025,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67668433"/>
-        <c:axId val="62944341"/>
+        <c:axId val="67853804"/>
+        <c:axId val="40243175"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67668433"/>
+        <c:axId val="67853804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,12 +1057,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62944341"/>
+        <c:crossAx val="40243175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62944341"/>
+        <c:axId val="40243175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67668433"/>
+        <c:crossAx val="67853804"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1167,7 +1190,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="T4:Y24 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1241,7 +1264,7 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="T4:Y24 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,8 +1455,8 @@
   </sheetPr>
   <dimension ref="B1:Y31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4:Y24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z24" activeCellId="0" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1554,8 +1577,8 @@
         <v>0.152815934065934</v>
       </c>
       <c r="Y4" s="25" t="n">
-        <f aca="false">X4*SQRT( (U4/T4)^2 + (W4/V4)^2 )</f>
-        <v>0.0148294531566883</v>
+        <f aca="false">4*X4*SQRT( (U4/T4)^2 + (W4/V4)^2 )</f>
+        <v>0.0593178126267533</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T4:Y24 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2936,6 +2959,19 @@
       <c r="F7" s="15" t="s">
         <v>99</v>
       </c>
+      <c r="J7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>87.71</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">D12</f>
+        <v>1326</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="15" t="s">
@@ -2951,7 +2987,21 @@
         <v>0.9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="24" t="n">
+        <f aca="false">24130</f>
+        <v>24130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>217351</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2968,12 +3018,12 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>30</v>
@@ -2985,12 +3035,12 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>30</v>
@@ -3002,12 +3052,12 @@
         <v>0.2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="16" t="n">
@@ -3015,12 +3065,12 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="16" t="n">
@@ -3028,12 +3078,19 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="33" t="n">
+        <f aca="false">N7/(N7 + (K8/K7)*N8)</f>
+        <v>2.2175021006637E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>22</v>
@@ -3045,7 +3102,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="33" t="n">
+        <f aca="false">(K8/K7)*SQRT(N8/N7^2 + N8^2/N7^3)*K13</f>
+        <v>0.0275447820068952</v>
       </c>
     </row>
   </sheetData>
